--- a/DrainageArea_Volumes.xlsx
+++ b/DrainageArea_Volumes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/860d099f4eb81d8c/Courses/Bio381/Estabrook_Bio381/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6303034-45BF-4873-B64E-EA09E004737D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A6303034-45BF-4873-B64E-EA09E004737D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0C10BEC5-7EBC-470D-A6DC-96EA4830E75B}"/>
   <bookViews>
-    <workbookView xWindow="7464" yWindow="5496" windowWidth="22092" windowHeight="8964" xr2:uid="{0775B5BE-B5E3-4A0D-9B5D-3C858183B993}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22092" windowHeight="8964" xr2:uid="{0775B5BE-B5E3-4A0D-9B5D-3C858183B993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Site ID</t>
+    <t>x_var</t>
   </si>
   <si>
-    <t>Volume (m^3)</t>
-  </si>
-  <si>
-    <t>Drainage Area (m^2)</t>
+    <t>y_var</t>
   </si>
 </sst>
 </file>
@@ -49,7 +46,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -122,7 +119,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,102 +434,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35623824-84BF-4CA0-806F-64CBAFCB9AF5}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
         <v>171991.4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3">
         <v>197.8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
         <v>24523.95</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>146.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
         <v>8215.1190000000006</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>82.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
         <v>28692.21</v>
       </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
         <v>490.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2">
         <v>89354.59</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>52.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
         <v>116266.19</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2">
         <v>4168.2619999999997</v>
       </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3">
         <v>28.1</v>
       </c>
     </row>
